--- a/inst/extdata/vignettes/cautionary_note_01.xlsx
+++ b/inst/extdata/vignettes/cautionary_note_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D2BC5C-DF11-AE46-B3C2-1910ADD1A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E9D74D-9100-2440-B985-B0A361705874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1940" windowWidth="31520" windowHeight="18700" activeTab="2" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="1300" yWindow="1840" windowWidth="31520" windowHeight="18700" activeTab="2" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="studies" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>country_name</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>study_02_site_01</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -534,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +551,7 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -567,8 +573,11 @@
       <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -585,7 +594,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -727,18 +736,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E51D5F-A46A-0B42-A5D0-47D275C37629}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -754,8 +763,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -772,7 +784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -789,7 +801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -806,7 +818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -823,7 +835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
